--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43095,6 +43095,41 @@
         <v>32500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43130,6 +43130,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,43 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43272,6 +43272,41 @@
         <v>7700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>50700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         <v>50700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>145800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         <v>145800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>90200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,76 @@
         <v>90200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>112500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,76 @@
         <v>112500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>40300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,41 @@
         <v>40300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>22200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43727,6 +43727,41 @@
         <v>22200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43762,6 +43762,41 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,76 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>110700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         <v>110700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>152600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         <v>152600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>84800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92692,6 +92692,41 @@
         <v>84800</v>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2635" t="n">
+        <v>247500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92727,6 +92727,41 @@
         <v>247500</v>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I2636" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2636"/>
+  <dimension ref="A1:I2637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92762,6 +92762,41 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2637" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2637" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2637" t="n">
+        <v>38100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2637"/>
+  <dimension ref="A1:I2638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92797,6 +92797,41 @@
         <v>38100</v>
       </c>
     </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G2638" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2638" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2638" t="n">
+        <v>61500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2638"/>
+  <dimension ref="A1:I2639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92832,6 +92832,41 @@
         <v>61500</v>
       </c>
     </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2639" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2639" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2639" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2639" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I2639" t="n">
+        <v>115300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2639"/>
+  <dimension ref="A1:I2640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92867,6 +92867,41 @@
         <v>115300</v>
       </c>
     </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2640" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2640" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2640" t="n">
+        <v>65800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2640"/>
+  <dimension ref="A1:I2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92902,6 +92902,41 @@
         <v>65800</v>
       </c>
     </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G2641" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2641" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I2641" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2641"/>
+  <dimension ref="A1:I2642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92937,6 +92937,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2642" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2642" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2642" t="n">
+        <v>145600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92972,6 +92972,41 @@
         <v>145600</v>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2643" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93007,6 +93007,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2644" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93042,6 +93042,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2645" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2645"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93077,6 +93077,41 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I2646" t="n">
+        <v>49200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2646"/>
+  <dimension ref="A1:I2647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93112,6 +93112,41 @@
         <v>49200</v>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2647" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H2647" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I2647" t="n">
+        <v>59700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93147,6 +93147,41 @@
         <v>59700</v>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2648" t="n">
+        <v>22600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5010.xlsx
+++ b/data/5010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93182,6 +93182,41 @@
         <v>22600</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>TONGHER</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
